--- a/biology/Botanique/Mucuna/Mucuna.xlsx
+++ b/biology/Botanique/Mucuna/Mucuna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mucuna est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, à répartition pantropicale, qui comprend environ 80 espèces acceptées, et dont l'espèce type est Dolichos urens L..
 Ce sont des lianes ou plantes grimpantes, ligneuses ou herbacées, aux feuilles trifoliées et aux fleurs papilionacées. Certaines espèces sont cultivées comme plantes alimentaires ou ornementales.
@@ -512,7 +524,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mucuna pallida Cordem.
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (17 juin 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (17 juin 2022) :
 Macranthus guadalupensis Spreng., 1826
 Mucuna acuminata Grah. ex Prain, 1897
 Mucuna acuminata Graham ex Baker
@@ -718,7 +734,7 @@
 Stizolobium junghuhnian Kuntze
 Stizolobium maculatum 
 Stizolobium officinale 
-Selon The Plant List            (15 décembre 2018)[3] :
+Selon The Plant List            (15 décembre 2018) :
 Mucuna acuminata Baker
 Mucuna amblyodon Harms
 Mucuna argyrophylla Standl.
